--- a/文档/eWeb_同行评审报告.xlsx
+++ b/文档/eWeb_同行评审报告.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{919FA1EB-58D1-44AF-BA5C-229AA1168F72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA0E6C43-A979-4934-A359-CE63F45829C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="同行评审报告" sheetId="1" r:id="rId1"/>
+    <sheet name="过程定义" sheetId="3" r:id="rId2"/>
+    <sheet name="变更历史" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>No.</t>
   </si>
@@ -64,24 +66,12 @@
     <t>项目开发计划报告</t>
   </si>
   <si>
-    <t>配置管理计划报告</t>
-  </si>
-  <si>
-    <t>测试计划报告</t>
-  </si>
-  <si>
     <t>项目进度计划</t>
   </si>
   <si>
     <t>软件需求规约文档</t>
   </si>
   <si>
-    <t>软件实现规约文档</t>
-  </si>
-  <si>
-    <t>产品需求库文档</t>
-  </si>
-  <si>
     <t>正式</t>
   </si>
   <si>
@@ -91,35 +81,197 @@
     <t>精化</t>
   </si>
   <si>
-    <t>系统构架设计文档</t>
-  </si>
-  <si>
-    <t>分析、设计模型</t>
-  </si>
-  <si>
-    <t>数据库设计说明书</t>
-  </si>
-  <si>
-    <t>测试分析报告文档</t>
-  </si>
-  <si>
-    <t>系统测试用例文档</t>
-  </si>
-  <si>
     <t>技术评审</t>
+  </si>
+  <si>
+    <t>系统构架设计分析、设计模型</t>
+  </si>
+  <si>
+    <t>数据库模型</t>
+  </si>
+  <si>
+    <t>界面原型</t>
+  </si>
+  <si>
+    <t>构建</t>
+  </si>
+  <si>
+    <t>代码走查（用户注册功能）</t>
+  </si>
+  <si>
+    <t>代码走查（我的主页界面）</t>
+  </si>
+  <si>
+    <t>代码走查（用户实名认证功能）</t>
+  </si>
+  <si>
+    <t>代码走查（我的账户信息界面）</t>
+  </si>
+  <si>
+    <t>代码走查（提交发布新闻功能）</t>
+  </si>
+  <si>
+    <t>产品化</t>
+  </si>
+  <si>
+    <t>用户使用手册</t>
+  </si>
+  <si>
+    <t>产品安装手册</t>
+  </si>
+  <si>
+    <t>不符合问题追踪表</t>
+  </si>
+  <si>
+    <t>项目开发总结报告文档</t>
+  </si>
+  <si>
+    <t>评审参与人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>黄一桂</t>
+  </si>
+  <si>
+    <t>陈嘉康、黄一桂、方兆彬、陈展望</t>
+  </si>
+  <si>
+    <t>变更历史</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>版次</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <r>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+  </si>
+  <si>
+    <t>初稿发布</t>
+  </si>
+  <si>
+    <t>陈嘉康</t>
+  </si>
+  <si>
+    <t>0.1.20180706</t>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审方法</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属阶段</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审类型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>非正式</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理评审</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术评审</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>走查</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/m/d;\-;\-;@"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,27 +317,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="標準_Sheet1_設計オンラインＴ内部課題管理表(20050303)" xfId="2" xr:uid="{60EC396A-85CB-4421-B37B-733C87995E54}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{76F22C3B-B69D-4EC3-91DA-CDC27F57D6AA}"/>
+    <cellStyle name="一般_SSIP4-029_問題報告_AX1_20060323" xfId="1" xr:uid="{76E63AAF-27B0-4DB6-969C-8BF805C5900E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,372 +717,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43285</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.8">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43285</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.8">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43285</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.8">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43288</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.8">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43288</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.8">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43288</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.8">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.8">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.8">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.8">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.8">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.8">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.8">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.8">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4">
-        <v>43289</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43316</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43316</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4">
-        <v>43316</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4">
-        <v>43316</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4">
-        <v>43316</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="F18" s="5">
+        <v>43298</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -838,4 +1212,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3AE410-E6AF-457C-A987-37C91388C6ED}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6">
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="A3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB4D060-2A28-4C28-A277-3CD0E38D6A56}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.2">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43287</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>